--- a/Teaching/Statistics/results/Tabel_Statistica_Restanta2.xlsx
+++ b/Teaching/Statistics/results/Tabel_Statistica_Restanta2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nume</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>COVRIG C. CONSTANTINA EVELINA</t>
+  </si>
+  <si>
+    <t>ILIESI I. SIMONA-RALUCA</t>
+  </si>
+  <si>
+    <t>BALUTA I. ION</t>
+  </si>
+  <si>
+    <t>DEDIU M. ANDREI</t>
   </si>
 </sst>
 </file>
@@ -351,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -375,17 +384,41 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>321</v>
       </c>
     </row>
